--- a/mappings/6_Kress_GroupAcquisitions_ImportMapping.xlsx
+++ b/mappings/6_Kress_GroupAcquisitions_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0B959-B201-B34E-A34C-41E6D1410605}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF48CAF-4F81-F24E-B8A4-FFC5FC8B0C52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="1360" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49320" yWindow="1600" windowWidth="22400" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,18 +507,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -526,11 +520,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,10 +565,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -582,12 +581,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,23 +805,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="3" width="29" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="7" style="24" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="67.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="7" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="67.140625" style="22" customWidth="1"/>
     <col min="12" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -876,13 +876,13 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
@@ -912,7 +912,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7">
@@ -925,7 +925,7 @@
       <c r="E3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -948,7 +948,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7">
@@ -1001,7 +1001,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1019,13 +1019,13 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="7"/>
@@ -1036,7 +1036,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1066,7 +1066,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1084,13 +1084,13 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="5"/>
@@ -1101,7 +1101,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>132</v>
       </c>
       <c r="L8" s="4"/>
@@ -1121,25 +1121,25 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>9</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1157,13 +1157,13 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="5"/>
@@ -1174,7 +1174,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1192,25 +1192,25 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>11</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1228,13 +1228,13 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>12</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5"/>
@@ -1266,13 +1266,13 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>13</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="7"/>
@@ -1283,7 +1283,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="21" t="s">
         <v>129</v>
       </c>
       <c r="L13" s="4"/>
@@ -1303,7 +1303,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="7">
@@ -1316,7 +1316,7 @@
       <c r="E14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1339,7 +1339,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="7">
@@ -1352,7 +1352,7 @@
       <c r="E15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1375,7 +1375,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="7">
@@ -1411,13 +1411,13 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="26">
         <v>17</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="9"/>
@@ -1461,7 +1461,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -1573,7 +1573,7 @@
         <v>59</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="15"/>
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
@@ -1742,7 +1742,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>88</v>
@@ -1817,7 +1817,7 @@
       <c r="B29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="1" t="s">

--- a/mappings/6_Kress_GroupAcquisitions_ImportMapping.xlsx
+++ b/mappings/6_Kress_GroupAcquisitions_ImportMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Documents/GitHub/NGA-Kress/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF48CAF-4F81-F24E-B8A4-FFC5FC8B0C52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D29E6B-9A81-5B4A-B103-D94E482E548F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49320" yWindow="1600" windowWidth="22400" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43540" yWindow="2200" windowWidth="24060" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>Mapping</t>
   </si>
@@ -423,27 +423,18 @@
 "formatWithTemplate": "^7 - ^8"}</t>
   </si>
   <si>
-    <t>test delimiter for ACQ131</t>
-  </si>
-  <si>
     <t>{"skipIfEmpty": "1",
 "delimiter": ";"}</t>
   </si>
   <si>
     <t>ca_movements.media.media_filename</t>
   </si>
-  <si>
-    <t>see ACQ303, translates to early 1940s</t>
-  </si>
-  <si>
-    <t>make sure formatting is right</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,12 +469,6 @@
       <sz val="11"/>
       <color rgb="FF3D3D3D"/>
       <name val="Merriweather Sans"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF993300"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -533,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,17 +553,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -805,23 +789,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8" style="22" customWidth="1"/>
-    <col min="3" max="3" width="29" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="67.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="67.140625" style="21" customWidth="1"/>
     <col min="12" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -876,13 +860,13 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
@@ -912,7 +896,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7">
@@ -925,7 +909,7 @@
       <c r="E3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -948,7 +932,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7">
@@ -1001,7 +985,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1019,7 +1003,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="17">
@@ -1036,7 +1020,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1066,7 +1050,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1084,7 +1068,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="7">
@@ -1101,9 +1085,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="K8" s="20"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1121,7 +1103,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="17">
@@ -1134,12 +1116,12 @@
       <c r="E9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1157,7 +1139,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="17">
@@ -1174,7 +1156,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1192,25 +1174,25 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="17">
         <v>11</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1228,7 +1210,7 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="17">
@@ -1246,9 +1228,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1266,7 +1246,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="17">
@@ -1277,15 +1257,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="K13" s="20"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1303,7 +1281,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="7">
@@ -1316,7 +1294,7 @@
       <c r="E14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1339,7 +1317,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="7">
@@ -1352,7 +1330,7 @@
       <c r="E15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1375,7 +1353,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="7">
@@ -1411,14 +1389,14 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>17</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>131</v>
+      <c r="C17" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="6" t="s">
@@ -1461,7 +1439,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -1573,7 +1551,7 @@
         <v>59</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="15"/>
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
@@ -1779,7 +1757,7 @@
       <c r="B28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -1817,7 +1795,7 @@
       <c r="B29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
